--- a/inst/examples/respFile.xlsx
+++ b/inst/examples/respFile.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\projects\wurmc_(mverouden_GITHUB)\inst\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0CC64C-D320-4F22-B7C4-73D7B5346DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3571D772-750A-4567-A9CC-4C33D6504693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21150" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAT15403" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="32">
   <si>
     <t>Registration nr</t>
+  </si>
+  <si>
+    <t>Versie</t>
   </si>
   <si>
     <t>Q1</t>
@@ -100,32 +108,42 @@
     <t>Q25</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>BLANK</t>
-  </si>
-  <si>
-    <t>Versie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,8 +166,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,564 +489,567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA35"/>
+  <dimension ref="A1:AA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="1025" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>122522</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1039637</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1016325</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1034463</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1034949</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1033446</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1040625</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1049796</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1017578</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" t="s">
-        <v>26</v>
-      </c>
-      <c r="U4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1047920</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V5" t="s">
-        <v>28</v>
-      </c>
-      <c r="W5" t="s">
-        <v>28</v>
-      </c>
-      <c r="X5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1047771</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T6" t="s">
-        <v>26</v>
-      </c>
-      <c r="U6" t="s">
-        <v>27</v>
-      </c>
-      <c r="V6" t="s">
-        <v>28</v>
-      </c>
-      <c r="W6" t="s">
-        <v>26</v>
-      </c>
-      <c r="X6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1015028</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s">
         <v>29</v>
@@ -1030,7 +1058,7 @@
         <v>27</v>
       </c>
       <c r="T7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -1042,131 +1070,131 @@
         <v>28</v>
       </c>
       <c r="X7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1044759</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
+      <c r="A8" s="2">
+        <v>1007241</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O8" t="s">
         <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="T8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V8" t="s">
         <v>28</v>
       </c>
       <c r="W8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1034915</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
+      <c r="A9" s="2">
+        <v>1057425</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
         <v>29</v>
@@ -1175,25 +1203,25 @@
         <v>29</v>
       </c>
       <c r="M9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R9" t="s">
         <v>29</v>
       </c>
       <c r="S9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="T9" t="s">
         <v>28</v>
@@ -1202,422 +1230,422 @@
         <v>28</v>
       </c>
       <c r="V9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1025956</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
+      <c r="A10" s="2">
+        <v>1013644</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
         <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N10" t="s">
         <v>29</v>
       </c>
       <c r="O10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S10" t="s">
         <v>29</v>
       </c>
       <c r="T10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1015145</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
+      <c r="A11" s="2">
+        <v>1051738</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N11" t="s">
         <v>29</v>
       </c>
       <c r="O11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P11" t="s">
         <v>29</v>
       </c>
       <c r="Q11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1047669</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
+      <c r="A12" s="2">
+        <v>1039261</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I12" t="s">
         <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M12" t="s">
         <v>28</v>
       </c>
       <c r="N12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P12" t="s">
         <v>29</v>
       </c>
       <c r="Q12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="S12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="X12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1049510</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
+      <c r="A13" s="2">
+        <v>1034215</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L13" t="s">
         <v>27</v>
       </c>
       <c r="M13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="S13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="V13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Y13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1011143</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
+      <c r="A14" s="2">
+        <v>1020315</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P14" t="s">
         <v>29</v>
       </c>
       <c r="Q14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W14" t="s">
         <v>28</v>
@@ -1626,116 +1654,116 @@
         <v>27</v>
       </c>
       <c r="Y14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1034378</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
+      <c r="A15" s="2">
+        <v>1007303</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V15" t="s">
         <v>29</v>
       </c>
       <c r="W15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1008482</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
+      <c r="A16" s="2">
+        <v>1046092</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
@@ -1744,46 +1772,46 @@
         <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L16" t="s">
         <v>29</v>
       </c>
       <c r="M16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S16" t="s">
         <v>29</v>
       </c>
       <c r="T16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="V16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W16" t="s">
         <v>28</v>
@@ -1792,244 +1820,244 @@
         <v>28</v>
       </c>
       <c r="Y16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1009642</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
+      <c r="A17" s="2">
+        <v>1053387</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q17" t="s">
         <v>28</v>
       </c>
       <c r="R17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S17" t="s">
         <v>28</v>
       </c>
       <c r="T17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="V17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1049589</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="2">
+        <v>1046850</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s">
         <v>29</v>
       </c>
       <c r="K18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N18" t="s">
         <v>27</v>
       </c>
       <c r="O18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z18" t="s">
         <v>27</v>
       </c>
       <c r="AA18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1032400</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="2">
+        <v>1048357</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M19" t="s">
         <v>29</v>
       </c>
       <c r="N19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O19" t="s">
         <v>27</v>
       </c>
       <c r="P19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q19" t="s">
         <v>29</v>
       </c>
       <c r="R19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="S19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T19" t="s">
         <v>27</v>
       </c>
       <c r="U19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="V19" t="s">
         <v>28</v>
@@ -2038,39 +2066,39 @@
         <v>28</v>
       </c>
       <c r="X19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1003933</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="2">
+        <v>1007835</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
         <v>29</v>
@@ -2082,13 +2110,13 @@
         <v>29</v>
       </c>
       <c r="K20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N20" t="s">
         <v>29</v>
@@ -2097,256 +2125,256 @@
         <v>29</v>
       </c>
       <c r="P20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q20" t="s">
         <v>28</v>
       </c>
       <c r="R20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X20" t="s">
         <v>27</v>
       </c>
       <c r="Y20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z20" t="s">
         <v>27</v>
       </c>
       <c r="AA20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1050748</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="2">
+        <v>1009886</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J21" t="s">
         <v>29</v>
       </c>
       <c r="K21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O21" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q21" t="s">
         <v>28</v>
       </c>
       <c r="R21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W21" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="X21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1011861</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="2">
+        <v>1000540</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N22" t="s">
         <v>29</v>
       </c>
       <c r="O22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="S22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U22" t="s">
         <v>27</v>
       </c>
       <c r="V22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z22" t="s">
         <v>27</v>
       </c>
       <c r="AA22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>1038401</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="2">
+        <v>1008771</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I23" t="s">
         <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O23" t="s">
         <v>29</v>
       </c>
       <c r="P23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q23" t="s">
         <v>28</v>
@@ -2355,57 +2383,57 @@
         <v>27</v>
       </c>
       <c r="S23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U23" t="s">
         <v>27</v>
       </c>
       <c r="V23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z23" t="s">
         <v>27</v>
       </c>
       <c r="AA23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1048278</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" s="2">
+        <v>1018703</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I24" t="s">
         <v>29</v>
@@ -2414,102 +2442,102 @@
         <v>29</v>
       </c>
       <c r="K24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M24" t="s">
         <v>27</v>
       </c>
       <c r="N24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O24" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P24" t="s">
         <v>28</v>
       </c>
       <c r="Q24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W24" t="s">
         <v>27</v>
       </c>
       <c r="X24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y24" t="s">
         <v>29</v>
       </c>
       <c r="Z24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1049681</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" s="2">
+        <v>1036819</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J25" t="s">
         <v>29</v>
       </c>
       <c r="K25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P25" t="s">
         <v>28</v>
@@ -2518,84 +2546,84 @@
         <v>28</v>
       </c>
       <c r="R25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S25" t="s">
         <v>27</v>
       </c>
       <c r="T25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U25" t="s">
         <v>27</v>
       </c>
       <c r="V25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z25" t="s">
         <v>27</v>
       </c>
       <c r="AA25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1048592</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="2">
+        <v>1024979</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K26" t="s">
         <v>29</v>
       </c>
       <c r="L26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O26" t="s">
         <v>29</v>
       </c>
       <c r="P26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q26" t="s">
         <v>29</v>
@@ -2604,99 +2632,99 @@
         <v>27</v>
       </c>
       <c r="S26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="T26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W26" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="X26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z26" t="s">
         <v>27</v>
       </c>
       <c r="AA26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1049739</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" s="2">
+        <v>1044712</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q27" t="s">
         <v>28</v>
       </c>
       <c r="R27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U27" t="s">
         <v>29</v>
       </c>
       <c r="V27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W27" t="s">
         <v>27</v>
@@ -2705,75 +2733,75 @@
         <v>27</v>
       </c>
       <c r="Y27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1045073</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" s="2">
+        <v>1025331</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I28" t="s">
         <v>29</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K28" t="s">
         <v>29</v>
       </c>
       <c r="L28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O28" t="s">
         <v>29</v>
       </c>
       <c r="P28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R28" t="s">
         <v>27</v>
       </c>
       <c r="S28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U28" t="s">
         <v>27</v>
@@ -2782,161 +2810,161 @@
         <v>28</v>
       </c>
       <c r="W28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z28" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AA28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>1009122</v>
-      </c>
-      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>1029271</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J29" t="s">
         <v>29</v>
       </c>
       <c r="K29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L29" t="s">
         <v>29</v>
       </c>
       <c r="M29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O29" t="s">
         <v>29</v>
       </c>
       <c r="P29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q29" t="s">
         <v>28</v>
       </c>
       <c r="R29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V29" t="s">
         <v>28</v>
       </c>
       <c r="W29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y29" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z29" t="s">
         <v>27</v>
       </c>
       <c r="AA29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1030098</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
+      <c r="A30" s="2">
+        <v>1050401</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L30" t="s">
         <v>27</v>
       </c>
       <c r="M30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T30" t="s">
         <v>28</v>
@@ -2945,45 +2973,45 @@
         <v>27</v>
       </c>
       <c r="V30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA30" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>1042524</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>1014296</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
         <v>27</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H31" t="s">
         <v>29</v>
@@ -2992,72 +3020,72 @@
         <v>28</v>
       </c>
       <c r="J31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M31" t="s">
         <v>28</v>
       </c>
       <c r="N31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R31" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="S31" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="T31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U31" t="s">
         <v>27</v>
       </c>
       <c r="V31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>1049777</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
+      <c r="A32" s="2">
+        <v>1025614</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E32" t="s">
         <v>27</v>
@@ -3066,301 +3094,301 @@
         <v>27</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I32" t="s">
         <v>28</v>
       </c>
       <c r="J32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L32" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M32" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O32" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P32" t="s">
         <v>29</v>
       </c>
       <c r="Q32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R32" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="S32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T32" t="s">
         <v>28</v>
       </c>
       <c r="U32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>1050736</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
+      <c r="A33" s="2">
+        <v>1014159</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H33" t="s">
         <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M33" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P33" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R33" t="s">
         <v>29</v>
       </c>
       <c r="S33" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U33" t="s">
         <v>27</v>
       </c>
       <c r="V33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W33" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="X33" t="s">
         <v>27</v>
       </c>
       <c r="Y33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>1049441</v>
-      </c>
-      <c r="B34" t="s">
-        <v>29</v>
+      <c r="A34" s="2">
+        <v>1033971</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H34" t="s">
         <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M34" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P34" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S34" t="s">
         <v>28</v>
       </c>
       <c r="T34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U34" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="V34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X34" t="s">
         <v>27</v>
       </c>
       <c r="Y34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z34" t="s">
         <v>28</v>
       </c>
       <c r="AA34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>1023518</v>
-      </c>
-      <c r="B35" t="s">
-        <v>29</v>
+      <c r="A35" s="2">
+        <v>1007713</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s">
         <v>27</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H35" t="s">
         <v>29</v>
       </c>
       <c r="I35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L35" t="s">
         <v>28</v>
       </c>
       <c r="M35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R35" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="S35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U35" t="s">
         <v>27</v>
       </c>
       <c r="V35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W35" t="s">
         <v>28</v>
@@ -3369,16 +3397,515 @@
         <v>27</v>
       </c>
       <c r="Y35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AA35" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>1051910</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" t="s">
+        <v>30</v>
+      </c>
+      <c r="O36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>27</v>
+      </c>
+      <c r="R36" t="s">
+        <v>29</v>
+      </c>
+      <c r="S36" t="s">
+        <v>28</v>
+      </c>
+      <c r="T36" t="s">
+        <v>29</v>
+      </c>
+      <c r="U36" t="s">
+        <v>27</v>
+      </c>
+      <c r="V36" t="s">
+        <v>29</v>
+      </c>
+      <c r="W36" t="s">
+        <v>29</v>
+      </c>
+      <c r="X36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>1015735</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" t="s">
+        <v>30</v>
+      </c>
+      <c r="P37" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>29</v>
+      </c>
+      <c r="R37" t="s">
+        <v>30</v>
+      </c>
+      <c r="S37" t="s">
+        <v>31</v>
+      </c>
+      <c r="T37" t="s">
+        <v>27</v>
+      </c>
+      <c r="U37" t="s">
+        <v>27</v>
+      </c>
+      <c r="V37" t="s">
+        <v>30</v>
+      </c>
+      <c r="W37" t="s">
+        <v>28</v>
+      </c>
+      <c r="X37" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>1031806</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" t="s">
+        <v>30</v>
+      </c>
+      <c r="O38" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>27</v>
+      </c>
+      <c r="R38" t="s">
+        <v>30</v>
+      </c>
+      <c r="S38" t="s">
+        <v>28</v>
+      </c>
+      <c r="T38" t="s">
+        <v>28</v>
+      </c>
+      <c r="U38" t="s">
+        <v>28</v>
+      </c>
+      <c r="V38" t="s">
+        <v>30</v>
+      </c>
+      <c r="W38" t="s">
+        <v>29</v>
+      </c>
+      <c r="X38" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>1019104</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N39" t="s">
+        <v>30</v>
+      </c>
+      <c r="O39" t="s">
+        <v>30</v>
+      </c>
+      <c r="P39" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>29</v>
+      </c>
+      <c r="R39" t="s">
+        <v>29</v>
+      </c>
+      <c r="S39" t="s">
+        <v>28</v>
+      </c>
+      <c r="T39" t="s">
+        <v>27</v>
+      </c>
+      <c r="U39" t="s">
+        <v>27</v>
+      </c>
+      <c r="V39" t="s">
+        <v>29</v>
+      </c>
+      <c r="W39" t="s">
+        <v>28</v>
+      </c>
+      <c r="X39" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>1041851</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" t="s">
+        <v>28</v>
+      </c>
+      <c r="M40" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" t="s">
+        <v>30</v>
+      </c>
+      <c r="O40" t="s">
+        <v>30</v>
+      </c>
+      <c r="P40" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>29</v>
+      </c>
+      <c r="R40" t="s">
+        <v>29</v>
+      </c>
+      <c r="S40" t="s">
+        <v>28</v>
+      </c>
+      <c r="T40" t="s">
+        <v>27</v>
+      </c>
+      <c r="U40" t="s">
+        <v>27</v>
+      </c>
+      <c r="V40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W40" t="s">
+        <v>28</v>
+      </c>
+      <c r="X40" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>1046680</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>29</v>
+      </c>
+      <c r="R41" t="s">
+        <v>28</v>
+      </c>
+      <c r="S41" t="s">
+        <v>31</v>
+      </c>
+      <c r="T41" t="s">
+        <v>28</v>
+      </c>
+      <c r="U41" t="s">
+        <v>29</v>
+      </c>
+      <c r="V41" t="s">
+        <v>30</v>
+      </c>
+      <c r="W41" t="s">
+        <v>29</v>
+      </c>
+      <c r="X41" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>